--- a/DSA Roadmap by Code and Debug.xlsx
+++ b/DSA Roadmap by Code and Debug.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eileen/Desktop/GitHub/Python_Portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D147C6F-107C-B244-8272-84F744A111EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09938D9F-C639-A443-915F-7D6CC5C37853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3853,8 +3853,8 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3900,7 +3900,7 @@
       <c r="A2" s="4"/>
       <c r="B2" s="14" t="str">
         <f>"COMPLETED: " &amp; TEXT(COUNTIF(A:A, "Completed"), "0") &amp; "/" &amp; TEXT(COUNTA(A:A), "0") &amp; " (" &amp; TEXT(COUNTIF(A:A, "Completed") / COUNTA(A:A), "0.00%") &amp; ")"</f>
-        <v>COMPLETED: 5/439 (1.14%)</v>
+        <v>COMPLETED: 13/439 (2.96%)</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="11" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="12" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>19</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="13" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>21</v>
@@ -4443,7 +4443,7 @@
     </row>
     <row r="18" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>29</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="19" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="20" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>33</v>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="21" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>35</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="22" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>37</v>

--- a/DSA Roadmap by Code and Debug.xlsx
+++ b/DSA Roadmap by Code and Debug.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eileen/Desktop/GitHub/Python_Portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09938D9F-C639-A443-915F-7D6CC5C37853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA85931-E356-6947-A016-054122F119D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F2FE978D-BFC1-1A49-9BDF-FCBBB4638820}</author>
+    <author>tc={FCD5EB8C-539D-8C42-AFE6-92ECC02A1A05}</author>
+    <author>tc={557157F9-093A-F049-904C-0C61B334EAD1}</author>
+  </authors>
+  <commentList>
+    <comment ref="D49" authorId="0" shapeId="0" xr:uid="{F2FE978D-BFC1-1A49-9BDF-FCBBB4638820}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Good question must review</t>
+      </text>
+    </comment>
+    <comment ref="C57" authorId="1" shapeId="0" xr:uid="{FCD5EB8C-539D-8C42-AFE6-92ECC02A1A05}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Logest subarray problem</t>
+      </text>
+    </comment>
+    <comment ref="C58" authorId="2" shapeId="0" xr:uid="{557157F9-093A-F049-904C-0C61B334EAD1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Binary search problem for O(logN)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="1151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="1151">
   <si>
     <t>This roadmap will be frequently updated, so make sure to keep checking it.</t>
   </si>
@@ -3558,7 +3594,7 @@
       <name val="Montserrat"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3583,6 +3619,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3596,7 +3644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3619,6 +3667,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3632,7 +3684,6 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3648,6 +3699,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Shah, Vrunda [Non-Kenvue]" id="{A1A38B53-F534-1C4D-9011-A25E4F743AC4}" userId="S::VShah43@kenvue.com::f7b9ce53-ff85-4a16-b03c-d3ffbfa85830" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3846,15 +3903,29 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D49" dT="2024-06-23T15:12:49.91" personId="{A1A38B53-F534-1C4D-9011-A25E4F743AC4}" id="{F2FE978D-BFC1-1A49-9BDF-FCBBB4638820}">
+    <text>Good question must review</text>
+  </threadedComment>
+  <threadedComment ref="C57" dT="2024-06-23T15:13:49.16" personId="{A1A38B53-F534-1C4D-9011-A25E4F743AC4}" id="{FCD5EB8C-539D-8C42-AFE6-92ECC02A1A05}">
+    <text>Logest subarray problem</text>
+  </threadedComment>
+  <threadedComment ref="C58" dT="2024-06-23T15:10:42.94" personId="{A1A38B53-F534-1C4D-9011-A25E4F743AC4}" id="{557157F9-093A-F049-904C-0C61B334EAD1}">
+    <text>Binary search problem for O(logN)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="109" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3867,11 +3938,11 @@
   <sheetData>
     <row r="1" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3898,12 +3969,12 @@
     </row>
     <row r="2" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
-      <c r="B2" s="14" t="str">
+      <c r="B2" s="18" t="str">
         <f>"COMPLETED: " &amp; TEXT(COUNTIF(A:A, "Completed"), "0") &amp; "/" &amp; TEXT(COUNTA(A:A), "0") &amp; " (" &amp; TEXT(COUNTIF(A:A, "Completed") / COUNTA(A:A), "0.00%") &amp; ")"</f>
-        <v>COMPLETED: 13/439 (2.96%)</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+        <v>COMPLETED: 83/439 (18.91%)</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -3930,11 +4001,11 @@
     </row>
     <row r="3" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -3996,11 +4067,11 @@
     </row>
     <row r="5" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -4093,11 +4164,11 @@
     </row>
     <row r="8" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -4317,7 +4388,7 @@
       <c r="C14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="3"/>
@@ -4412,11 +4483,11 @@
     </row>
     <row r="17" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -4628,7 +4699,7 @@
     </row>
     <row r="23" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>39</v>
@@ -4665,7 +4736,7 @@
     </row>
     <row r="24" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>41</v>
@@ -4702,7 +4773,7 @@
     </row>
     <row r="25" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>44</v>
@@ -4768,11 +4839,11 @@
     </row>
     <row r="27" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -4799,7 +4870,7 @@
     </row>
     <row r="28" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>48</v>
@@ -4836,7 +4907,7 @@
     </row>
     <row r="29" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>49</v>
@@ -4871,7 +4942,7 @@
     </row>
     <row r="30" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>51</v>
@@ -4879,7 +4950,7 @@
       <c r="C30" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E30" s="3"/>
@@ -4995,11 +5066,11 @@
     </row>
     <row r="34" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -5026,7 +5097,7 @@
     </row>
     <row r="35" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>55</v>
@@ -5063,7 +5134,7 @@
     </row>
     <row r="36" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>57</v>
@@ -5100,7 +5171,7 @@
     </row>
     <row r="37" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>59</v>
@@ -5137,12 +5208,12 @@
     </row>
     <row r="38" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -5174,7 +5245,7 @@
     </row>
     <row r="39" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>63</v>
@@ -5211,7 +5282,7 @@
     </row>
     <row r="40" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>64</v>
@@ -5248,7 +5319,7 @@
     </row>
     <row r="41" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>65</v>
@@ -5372,11 +5443,11 @@
     </row>
     <row r="45" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -5403,11 +5474,11 @@
     </row>
     <row r="46" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -5434,7 +5505,7 @@
     </row>
     <row r="47" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>69</v>
@@ -5471,7 +5542,7 @@
     </row>
     <row r="48" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>71</v>
@@ -5508,7 +5579,7 @@
     </row>
     <row r="49" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>73</v>
@@ -5516,7 +5587,7 @@
       <c r="C49" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="10" t="s">
         <v>75</v>
       </c>
       <c r="E49" s="3"/>
@@ -5545,7 +5616,7 @@
     </row>
     <row r="50" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>76</v>
@@ -5582,7 +5653,7 @@
     </row>
     <row r="51" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>79</v>
@@ -5590,9 +5661,7 @@
       <c r="C51" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="D51" s="8"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -5619,7 +5688,7 @@
     </row>
     <row r="52" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>82</v>
@@ -5656,7 +5725,7 @@
     </row>
     <row r="53" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>84</v>
@@ -5693,7 +5762,7 @@
     </row>
     <row r="54" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>87</v>
@@ -5730,7 +5799,7 @@
     </row>
     <row r="55" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>89</v>
@@ -5767,7 +5836,7 @@
     </row>
     <row r="56" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>91</v>
@@ -5804,12 +5873,12 @@
     </row>
     <row r="57" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="10" t="s">
         <v>94</v>
       </c>
       <c r="D57" s="8" t="s">
@@ -5841,15 +5910,15 @@
     </row>
     <row r="58" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="10" t="s">
         <v>98</v>
       </c>
       <c r="E58" s="3"/>
@@ -5878,7 +5947,7 @@
     </row>
     <row r="59" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>99</v>
@@ -5915,7 +5984,7 @@
     </row>
     <row r="60" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>101</v>
@@ -5923,8 +5992,8 @@
       <c r="C60" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>15</v>
+      <c r="D60" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -6010,11 +6079,11 @@
     </row>
     <row r="63" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -6041,7 +6110,7 @@
     </row>
     <row r="64" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>104</v>
@@ -6078,7 +6147,7 @@
     </row>
     <row r="65" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>107</v>
@@ -6115,7 +6184,7 @@
     </row>
     <row r="66" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>110</v>
@@ -6150,9 +6219,9 @@
       <c r="Z66" s="3"/>
       <c r="AA66" s="3"/>
     </row>
-    <row r="67" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>113</v>
@@ -6189,15 +6258,15 @@
     </row>
     <row r="68" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B68" s="13" t="s">
         <v>116</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E68" s="3"/>
@@ -6226,7 +6295,7 @@
     </row>
     <row r="69" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>117</v>
@@ -6263,7 +6332,7 @@
     </row>
     <row r="70" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>120</v>
@@ -6300,15 +6369,15 @@
     </row>
     <row r="71" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B71" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="10" t="s">
         <v>125</v>
       </c>
       <c r="E71" s="3"/>
@@ -6337,7 +6406,7 @@
     </row>
     <row r="72" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>126</v>
@@ -6345,7 +6414,7 @@
       <c r="C72" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E72" s="3"/>
@@ -6617,11 +6686,11 @@
     </row>
     <row r="80" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -7150,11 +7219,11 @@
     </row>
     <row r="95" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
@@ -7181,11 +7250,11 @@
     </row>
     <row r="96" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -7212,7 +7281,7 @@
     </row>
     <row r="97" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>177</v>
@@ -7249,7 +7318,7 @@
     </row>
     <row r="98" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>180</v>
@@ -7286,7 +7355,7 @@
     </row>
     <row r="99" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>182</v>
@@ -7323,7 +7392,7 @@
     </row>
     <row r="100" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>184</v>
@@ -7360,7 +7429,7 @@
     </row>
     <row r="101" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>187</v>
@@ -7397,7 +7466,7 @@
     </row>
     <row r="102" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>189</v>
@@ -7434,7 +7503,7 @@
     </row>
     <row r="103" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>192</v>
@@ -7471,7 +7540,7 @@
     </row>
     <row r="104" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>194</v>
@@ -7508,7 +7577,7 @@
     </row>
     <row r="105" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>197</v>
@@ -7545,7 +7614,7 @@
     </row>
     <row r="106" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>200</v>
@@ -7582,7 +7651,7 @@
     </row>
     <row r="107" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>203</v>
@@ -7619,7 +7688,7 @@
     </row>
     <row r="108" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>205</v>
@@ -7656,7 +7725,7 @@
     </row>
     <row r="109" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>208</v>
@@ -7751,11 +7820,11 @@
     </row>
     <row r="112" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
@@ -7782,7 +7851,7 @@
     </row>
     <row r="113" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>212</v>
@@ -7819,7 +7888,7 @@
     </row>
     <row r="114" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>214</v>
@@ -7856,7 +7925,7 @@
     </row>
     <row r="115" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>216</v>
@@ -8358,11 +8427,11 @@
     </row>
     <row r="129" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
@@ -8632,11 +8701,11 @@
     </row>
     <row r="137" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
-      <c r="B137" s="12" t="s">
+      <c r="B137" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="C137" s="11"/>
-      <c r="D137" s="11"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
@@ -8663,11 +8732,11 @@
     </row>
     <row r="138" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="C138" s="11"/>
-      <c r="D138" s="11"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
@@ -9011,11 +9080,11 @@
     </row>
     <row r="148" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
-      <c r="B148" s="10" t="s">
+      <c r="B148" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="C148" s="11"/>
-      <c r="D148" s="11"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
@@ -9396,11 +9465,11 @@
     </row>
     <row r="159" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
-      <c r="B159" s="10" t="s">
+      <c r="B159" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="C159" s="11"/>
-      <c r="D159" s="11"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
@@ -9818,11 +9887,11 @@
     </row>
     <row r="171" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
-      <c r="B171" s="12" t="s">
+      <c r="B171" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="C171" s="11"/>
-      <c r="D171" s="11"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
@@ -9849,11 +9918,11 @@
     </row>
     <row r="172" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
-      <c r="B172" s="10" t="s">
+      <c r="B172" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C172" s="11"/>
-      <c r="D172" s="11"/>
+      <c r="C172" s="15"/>
+      <c r="D172" s="15"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
@@ -9880,7 +9949,7 @@
     </row>
     <row r="173" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>331</v>
@@ -9917,7 +9986,7 @@
     </row>
     <row r="174" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>333</v>
@@ -9954,7 +10023,7 @@
     </row>
     <row r="175" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>335</v>
@@ -9962,7 +10031,7 @@
       <c r="C175" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="D175" s="8" t="s">
+      <c r="D175" s="10" t="s">
         <v>337</v>
       </c>
       <c r="E175" s="3"/>
@@ -9991,7 +10060,7 @@
     </row>
     <row r="176" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>338</v>
@@ -10028,7 +10097,7 @@
     </row>
     <row r="177" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>340</v>
@@ -10065,7 +10134,7 @@
     </row>
     <row r="178" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>342</v>
@@ -10160,11 +10229,11 @@
     </row>
     <row r="181" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
-      <c r="B181" s="10" t="s">
+      <c r="B181" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="C181" s="11"/>
-      <c r="D181" s="11"/>
+      <c r="C181" s="15"/>
+      <c r="D181" s="15"/>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
@@ -10191,7 +10260,7 @@
     </row>
     <row r="182" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>345</v>
@@ -10228,7 +10297,7 @@
     </row>
     <row r="183" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>347</v>
@@ -10265,7 +10334,7 @@
     </row>
     <row r="184" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>349</v>
@@ -10302,7 +10371,7 @@
     </row>
     <row r="185" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>351</v>
@@ -10397,11 +10466,11 @@
     </row>
     <row r="188" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
-      <c r="B188" s="10" t="s">
+      <c r="B188" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="C188" s="11"/>
-      <c r="D188" s="11"/>
+      <c r="C188" s="15"/>
+      <c r="D188" s="15"/>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
@@ -10428,7 +10497,7 @@
     </row>
     <row r="189" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>354</v>
@@ -10502,7 +10571,7 @@
     </row>
     <row r="191" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>360</v>
@@ -10539,7 +10608,7 @@
     </row>
     <row r="192" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>361</v>
@@ -10613,7 +10682,7 @@
     </row>
     <row r="194" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>367</v>
@@ -10650,7 +10719,7 @@
     </row>
     <row r="195" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>369</v>
@@ -10724,7 +10793,7 @@
     </row>
     <row r="197" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>375</v>
@@ -10761,7 +10830,7 @@
     </row>
     <row r="198" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>378</v>
@@ -11041,11 +11110,11 @@
     </row>
     <row r="206" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
-      <c r="B206" s="10" t="s">
+      <c r="B206" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="C206" s="11"/>
-      <c r="D206" s="11"/>
+      <c r="C206" s="15"/>
+      <c r="D206" s="15"/>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
@@ -11072,7 +11141,7 @@
     </row>
     <row r="207" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
-        <v>6</v>
+        <v>1150</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>394</v>
@@ -11241,11 +11310,11 @@
     </row>
     <row r="212" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4"/>
-      <c r="B212" s="10" t="s">
+      <c r="B212" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="C212" s="11"/>
-      <c r="D212" s="11"/>
+      <c r="C212" s="15"/>
+      <c r="D212" s="15"/>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
@@ -11478,11 +11547,11 @@
     </row>
     <row r="219" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
-      <c r="B219" s="12" t="s">
+      <c r="B219" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="C219" s="11"/>
-      <c r="D219" s="11"/>
+      <c r="C219" s="15"/>
+      <c r="D219" s="15"/>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
@@ -11509,11 +11578,11 @@
     </row>
     <row r="220" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
-      <c r="B220" s="10" t="s">
+      <c r="B220" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="C220" s="11"/>
-      <c r="D220" s="11"/>
+      <c r="C220" s="15"/>
+      <c r="D220" s="15"/>
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
@@ -11894,11 +11963,11 @@
     </row>
     <row r="231" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
-      <c r="B231" s="10" t="s">
+      <c r="B231" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="C231" s="11"/>
-      <c r="D231" s="11"/>
+      <c r="C231" s="15"/>
+      <c r="D231" s="15"/>
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
@@ -12168,11 +12237,11 @@
     </row>
     <row r="239" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
-      <c r="B239" s="10" t="s">
+      <c r="B239" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="C239" s="11"/>
-      <c r="D239" s="11"/>
+      <c r="C239" s="15"/>
+      <c r="D239" s="15"/>
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
@@ -12442,11 +12511,11 @@
     </row>
     <row r="247" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
-      <c r="B247" s="12" t="s">
+      <c r="B247" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="C247" s="11"/>
-      <c r="D247" s="11"/>
+      <c r="C247" s="15"/>
+      <c r="D247" s="15"/>
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
       <c r="G247" s="5"/>
@@ -12473,11 +12542,11 @@
     </row>
     <row r="248" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
-      <c r="B248" s="10" t="s">
+      <c r="B248" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="C248" s="11"/>
-      <c r="D248" s="11"/>
+      <c r="C248" s="15"/>
+      <c r="D248" s="15"/>
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
@@ -12747,11 +12816,11 @@
     </row>
     <row r="256" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
-      <c r="B256" s="10" t="s">
+      <c r="B256" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="C256" s="11"/>
-      <c r="D256" s="11"/>
+      <c r="C256" s="15"/>
+      <c r="D256" s="15"/>
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
@@ -13280,11 +13349,11 @@
     </row>
     <row r="271" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
-      <c r="B271" s="10" t="s">
+      <c r="B271" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="C271" s="11"/>
-      <c r="D271" s="11"/>
+      <c r="C271" s="15"/>
+      <c r="D271" s="15"/>
       <c r="E271" s="3"/>
       <c r="F271" s="3"/>
       <c r="G271" s="3"/>
@@ -13665,11 +13734,11 @@
     </row>
     <row r="282" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
-      <c r="B282" s="12" t="s">
+      <c r="B282" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="C282" s="11"/>
-      <c r="D282" s="11"/>
+      <c r="C282" s="15"/>
+      <c r="D282" s="15"/>
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
       <c r="G282" s="5"/>
@@ -13696,11 +13765,11 @@
     </row>
     <row r="283" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
-      <c r="B283" s="10" t="s">
+      <c r="B283" s="14" t="s">
         <v>517</v>
       </c>
-      <c r="C283" s="11"/>
-      <c r="D283" s="11"/>
+      <c r="C283" s="15"/>
+      <c r="D283" s="15"/>
       <c r="E283" s="3"/>
       <c r="F283" s="3"/>
       <c r="G283" s="3"/>
@@ -14081,11 +14150,11 @@
     </row>
     <row r="294" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
-      <c r="B294" s="10" t="s">
+      <c r="B294" s="14" t="s">
         <v>538</v>
       </c>
-      <c r="C294" s="11"/>
-      <c r="D294" s="11"/>
+      <c r="C294" s="15"/>
+      <c r="D294" s="15"/>
       <c r="E294" s="3"/>
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
@@ -14392,11 +14461,11 @@
     </row>
     <row r="303" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
-      <c r="B303" s="10" t="s">
+      <c r="B303" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="C303" s="11"/>
-      <c r="D303" s="11"/>
+      <c r="C303" s="15"/>
+      <c r="D303" s="15"/>
       <c r="E303" s="3"/>
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
@@ -14888,11 +14957,11 @@
     </row>
     <row r="317" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
-      <c r="B317" s="10" t="s">
+      <c r="B317" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="C317" s="11"/>
-      <c r="D317" s="11"/>
+      <c r="C317" s="15"/>
+      <c r="D317" s="15"/>
       <c r="E317" s="3"/>
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
@@ -15162,11 +15231,11 @@
     </row>
     <row r="325" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
-      <c r="B325" s="12" t="s">
+      <c r="B325" s="16" t="s">
         <v>595</v>
       </c>
-      <c r="C325" s="11"/>
-      <c r="D325" s="11"/>
+      <c r="C325" s="15"/>
+      <c r="D325" s="15"/>
       <c r="E325" s="5"/>
       <c r="F325" s="5"/>
       <c r="G325" s="5"/>
@@ -15193,11 +15262,11 @@
     </row>
     <row r="326" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
-      <c r="B326" s="10" t="s">
+      <c r="B326" s="14" t="s">
         <v>596</v>
       </c>
-      <c r="C326" s="11"/>
-      <c r="D326" s="11"/>
+      <c r="C326" s="15"/>
+      <c r="D326" s="15"/>
       <c r="E326" s="3"/>
       <c r="F326" s="3"/>
       <c r="G326" s="3"/>
@@ -15578,11 +15647,11 @@
     </row>
     <row r="337" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
-      <c r="B337" s="10" t="s">
+      <c r="B337" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="C337" s="11"/>
-      <c r="D337" s="11"/>
+      <c r="C337" s="15"/>
+      <c r="D337" s="15"/>
       <c r="E337" s="3"/>
       <c r="F337" s="3"/>
       <c r="G337" s="3"/>
@@ -15815,11 +15884,11 @@
     </row>
     <row r="344" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
-      <c r="B344" s="12" t="s">
+      <c r="B344" s="16" t="s">
         <v>632</v>
       </c>
-      <c r="C344" s="11"/>
-      <c r="D344" s="11"/>
+      <c r="C344" s="15"/>
+      <c r="D344" s="15"/>
       <c r="E344" s="5"/>
       <c r="F344" s="5"/>
       <c r="G344" s="5"/>
@@ -15846,11 +15915,11 @@
     </row>
     <row r="345" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
-      <c r="B345" s="10" t="s">
+      <c r="B345" s="14" t="s">
         <v>633</v>
       </c>
-      <c r="C345" s="11"/>
-      <c r="D345" s="11"/>
+      <c r="C345" s="15"/>
+      <c r="D345" s="15"/>
       <c r="E345" s="3"/>
       <c r="F345" s="3"/>
       <c r="G345" s="3"/>
@@ -16046,11 +16115,11 @@
     </row>
     <row r="351" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
-      <c r="B351" s="10" t="s">
+      <c r="B351" s="14" t="s">
         <v>640</v>
       </c>
-      <c r="C351" s="11"/>
-      <c r="D351" s="11"/>
+      <c r="C351" s="15"/>
+      <c r="D351" s="15"/>
       <c r="E351" s="3"/>
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
@@ -16357,11 +16426,11 @@
     </row>
     <row r="360" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
-      <c r="B360" s="10" t="s">
+      <c r="B360" s="14" t="s">
         <v>657</v>
       </c>
-      <c r="C360" s="11"/>
-      <c r="D360" s="11"/>
+      <c r="C360" s="15"/>
+      <c r="D360" s="15"/>
       <c r="E360" s="3"/>
       <c r="F360" s="3"/>
       <c r="G360" s="3"/>
@@ -16668,11 +16737,11 @@
     </row>
     <row r="369" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
-      <c r="B369" s="12" t="s">
+      <c r="B369" s="16" t="s">
         <v>672</v>
       </c>
-      <c r="C369" s="11"/>
-      <c r="D369" s="11"/>
+      <c r="C369" s="15"/>
+      <c r="D369" s="15"/>
       <c r="E369" s="5"/>
       <c r="F369" s="5"/>
       <c r="G369" s="5"/>
@@ -16699,11 +16768,11 @@
     </row>
     <row r="370" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
-      <c r="B370" s="10" t="s">
+      <c r="B370" s="14" t="s">
         <v>673</v>
       </c>
-      <c r="C370" s="11"/>
-      <c r="D370" s="11"/>
+      <c r="C370" s="15"/>
+      <c r="D370" s="15"/>
       <c r="E370" s="3"/>
       <c r="F370" s="3"/>
       <c r="G370" s="3"/>
@@ -16973,11 +17042,11 @@
     </row>
     <row r="378" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
-      <c r="B378" s="10" t="s">
+      <c r="B378" s="14" t="s">
         <v>687</v>
       </c>
-      <c r="C378" s="11"/>
-      <c r="D378" s="11"/>
+      <c r="C378" s="15"/>
+      <c r="D378" s="15"/>
       <c r="E378" s="3"/>
       <c r="F378" s="3"/>
       <c r="G378" s="3"/>
@@ -17432,11 +17501,11 @@
     </row>
     <row r="391" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
-      <c r="B391" s="12" t="s">
+      <c r="B391" s="16" t="s">
         <v>714</v>
       </c>
-      <c r="C391" s="11"/>
-      <c r="D391" s="11"/>
+      <c r="C391" s="15"/>
+      <c r="D391" s="15"/>
       <c r="E391" s="5"/>
       <c r="F391" s="5"/>
       <c r="G391" s="5"/>
@@ -17463,11 +17532,11 @@
     </row>
     <row r="392" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
-      <c r="B392" s="10" t="s">
+      <c r="B392" s="14" t="s">
         <v>715</v>
       </c>
-      <c r="C392" s="11"/>
-      <c r="D392" s="11"/>
+      <c r="C392" s="15"/>
+      <c r="D392" s="15"/>
       <c r="E392" s="3"/>
       <c r="F392" s="3"/>
       <c r="G392" s="3"/>
@@ -17996,11 +18065,11 @@
     </row>
     <row r="407" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
-      <c r="B407" s="10" t="s">
+      <c r="B407" s="14" t="s">
         <v>740</v>
       </c>
-      <c r="C407" s="11"/>
-      <c r="D407" s="11"/>
+      <c r="C407" s="15"/>
+      <c r="D407" s="15"/>
       <c r="E407" s="3"/>
       <c r="F407" s="3"/>
       <c r="G407" s="3"/>
@@ -18529,11 +18598,11 @@
     </row>
     <row r="422" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
-      <c r="B422" s="10" t="s">
+      <c r="B422" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="C422" s="11"/>
-      <c r="D422" s="11"/>
+      <c r="C422" s="15"/>
+      <c r="D422" s="15"/>
       <c r="E422" s="3"/>
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
@@ -19136,11 +19205,11 @@
     </row>
     <row r="439" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
-      <c r="B439" s="12" t="s">
+      <c r="B439" s="16" t="s">
         <v>809</v>
       </c>
-      <c r="C439" s="11"/>
-      <c r="D439" s="11"/>
+      <c r="C439" s="15"/>
+      <c r="D439" s="15"/>
       <c r="E439" s="5"/>
       <c r="F439" s="5"/>
       <c r="G439" s="5"/>
@@ -19167,11 +19236,11 @@
     </row>
     <row r="440" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
-      <c r="B440" s="10" t="s">
+      <c r="B440" s="14" t="s">
         <v>810</v>
       </c>
-      <c r="C440" s="11"/>
-      <c r="D440" s="11"/>
+      <c r="C440" s="15"/>
+      <c r="D440" s="15"/>
       <c r="E440" s="3"/>
       <c r="F440" s="3"/>
       <c r="G440" s="3"/>
@@ -19367,11 +19436,11 @@
     </row>
     <row r="446" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
-      <c r="B446" s="10" t="s">
+      <c r="B446" s="14" t="s">
         <v>818</v>
       </c>
-      <c r="C446" s="11"/>
-      <c r="D446" s="11"/>
+      <c r="C446" s="15"/>
+      <c r="D446" s="15"/>
       <c r="E446" s="3"/>
       <c r="F446" s="3"/>
       <c r="G446" s="3"/>
@@ -19937,11 +20006,11 @@
     </row>
     <row r="462" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
-      <c r="B462" s="12" t="s">
+      <c r="B462" s="16" t="s">
         <v>852</v>
       </c>
-      <c r="C462" s="11"/>
-      <c r="D462" s="11"/>
+      <c r="C462" s="15"/>
+      <c r="D462" s="15"/>
       <c r="E462" s="5"/>
       <c r="F462" s="5"/>
       <c r="G462" s="5"/>
@@ -19968,11 +20037,11 @@
     </row>
     <row r="463" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
-      <c r="B463" s="10" t="s">
+      <c r="B463" s="14" t="s">
         <v>853</v>
       </c>
-      <c r="C463" s="11"/>
-      <c r="D463" s="11"/>
+      <c r="C463" s="15"/>
+      <c r="D463" s="15"/>
       <c r="E463" s="3"/>
       <c r="F463" s="3"/>
       <c r="G463" s="3"/>
@@ -20242,11 +20311,11 @@
     </row>
     <row r="471" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
-      <c r="B471" s="10" t="s">
+      <c r="B471" s="14" t="s">
         <v>867</v>
       </c>
-      <c r="C471" s="11"/>
-      <c r="D471" s="11"/>
+      <c r="C471" s="15"/>
+      <c r="D471" s="15"/>
       <c r="E471" s="3"/>
       <c r="F471" s="3"/>
       <c r="G471" s="3"/>
@@ -20849,11 +20918,11 @@
     </row>
     <row r="488" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
-      <c r="B488" s="10" t="s">
+      <c r="B488" s="14" t="s">
         <v>903</v>
       </c>
-      <c r="C488" s="11"/>
-      <c r="D488" s="11"/>
+      <c r="C488" s="15"/>
+      <c r="D488" s="15"/>
       <c r="E488" s="3"/>
       <c r="F488" s="3"/>
       <c r="G488" s="3"/>
@@ -21197,11 +21266,11 @@
     </row>
     <row r="498" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
-      <c r="B498" s="10" t="s">
+      <c r="B498" s="14" t="s">
         <v>920</v>
       </c>
-      <c r="C498" s="11"/>
-      <c r="D498" s="11"/>
+      <c r="C498" s="15"/>
+      <c r="D498" s="15"/>
       <c r="E498" s="3"/>
       <c r="F498" s="3"/>
       <c r="G498" s="3"/>
@@ -21767,11 +21836,11 @@
     </row>
     <row r="514" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="4"/>
-      <c r="B514" s="10" t="s">
+      <c r="B514" s="14" t="s">
         <v>952</v>
       </c>
-      <c r="C514" s="11"/>
-      <c r="D514" s="11"/>
+      <c r="C514" s="15"/>
+      <c r="D514" s="15"/>
       <c r="E514" s="3"/>
       <c r="F514" s="3"/>
       <c r="G514" s="3"/>
@@ -22263,11 +22332,11 @@
     </row>
     <row r="528" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
-      <c r="B528" s="10" t="s">
+      <c r="B528" s="14" t="s">
         <v>978</v>
       </c>
-      <c r="C528" s="11"/>
-      <c r="D528" s="11"/>
+      <c r="C528" s="15"/>
+      <c r="D528" s="15"/>
       <c r="E528" s="3"/>
       <c r="F528" s="3"/>
       <c r="G528" s="3"/>
@@ -22463,11 +22532,11 @@
     </row>
     <row r="534" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="4"/>
-      <c r="B534" s="12" t="s">
+      <c r="B534" s="16" t="s">
         <v>985</v>
       </c>
-      <c r="C534" s="11"/>
-      <c r="D534" s="11"/>
+      <c r="C534" s="15"/>
+      <c r="D534" s="15"/>
       <c r="E534" s="5"/>
       <c r="F534" s="5"/>
       <c r="G534" s="5"/>
@@ -22494,11 +22563,11 @@
     </row>
     <row r="535" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="4"/>
-      <c r="B535" s="10" t="s">
+      <c r="B535" s="14" t="s">
         <v>986</v>
       </c>
-      <c r="C535" s="11"/>
-      <c r="D535" s="11"/>
+      <c r="C535" s="15"/>
+      <c r="D535" s="15"/>
       <c r="E535" s="3"/>
       <c r="F535" s="3"/>
       <c r="G535" s="3"/>
@@ -22618,11 +22687,11 @@
     </row>
     <row r="539" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="4"/>
-      <c r="B539" s="10" t="s">
+      <c r="B539" s="14" t="s">
         <v>989</v>
       </c>
-      <c r="C539" s="11"/>
-      <c r="D539" s="11"/>
+      <c r="C539" s="15"/>
+      <c r="D539" s="15"/>
       <c r="E539" s="3"/>
       <c r="F539" s="3"/>
       <c r="G539" s="3"/>
@@ -22892,11 +22961,11 @@
     </row>
     <row r="547" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="4"/>
-      <c r="B547" s="10" t="s">
+      <c r="B547" s="14" t="s">
         <v>1002</v>
       </c>
-      <c r="C547" s="11"/>
-      <c r="D547" s="11"/>
+      <c r="C547" s="15"/>
+      <c r="D547" s="15"/>
       <c r="E547" s="3"/>
       <c r="F547" s="3"/>
       <c r="G547" s="3"/>
@@ -23240,11 +23309,11 @@
     </row>
     <row r="557" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="4"/>
-      <c r="B557" s="10" t="s">
+      <c r="B557" s="14" t="s">
         <v>1021</v>
       </c>
-      <c r="C557" s="11"/>
-      <c r="D557" s="11"/>
+      <c r="C557" s="15"/>
+      <c r="D557" s="15"/>
       <c r="E557" s="3"/>
       <c r="F557" s="3"/>
       <c r="G557" s="3"/>
@@ -23736,11 +23805,11 @@
     </row>
     <row r="571" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="4"/>
-      <c r="B571" s="10" t="s">
+      <c r="B571" s="14" t="s">
         <v>1049</v>
       </c>
-      <c r="C571" s="11"/>
-      <c r="D571" s="11"/>
+      <c r="C571" s="15"/>
+      <c r="D571" s="15"/>
       <c r="E571" s="3"/>
       <c r="F571" s="3"/>
       <c r="G571" s="3"/>
@@ -24195,11 +24264,11 @@
     </row>
     <row r="584" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="4"/>
-      <c r="B584" s="10" t="s">
+      <c r="B584" s="14" t="s">
         <v>1077</v>
       </c>
-      <c r="C584" s="11"/>
-      <c r="D584" s="11"/>
+      <c r="C584" s="15"/>
+      <c r="D584" s="15"/>
       <c r="E584" s="3"/>
       <c r="F584" s="3"/>
       <c r="G584" s="3"/>
@@ -24506,11 +24575,11 @@
     </row>
     <row r="593" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="4"/>
-      <c r="B593" s="10" t="s">
+      <c r="B593" s="14" t="s">
         <v>1094</v>
       </c>
-      <c r="C593" s="11"/>
-      <c r="D593" s="11"/>
+      <c r="C593" s="15"/>
+      <c r="D593" s="15"/>
       <c r="E593" s="3"/>
       <c r="F593" s="3"/>
       <c r="G593" s="3"/>
@@ -24854,11 +24923,11 @@
     </row>
     <row r="603" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="4"/>
-      <c r="B603" s="10" t="s">
+      <c r="B603" s="14" t="s">
         <v>1110</v>
       </c>
-      <c r="C603" s="11"/>
-      <c r="D603" s="11"/>
+      <c r="C603" s="15"/>
+      <c r="D603" s="15"/>
       <c r="E603" s="3"/>
       <c r="F603" s="3"/>
       <c r="G603" s="3"/>
@@ -25202,11 +25271,11 @@
     </row>
     <row r="613" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="4"/>
-      <c r="B613" s="10" t="s">
+      <c r="B613" s="14" t="s">
         <v>1126</v>
       </c>
-      <c r="C613" s="11"/>
-      <c r="D613" s="11"/>
+      <c r="C613" s="15"/>
+      <c r="D613" s="15"/>
       <c r="E613" s="3"/>
       <c r="F613" s="3"/>
       <c r="G613" s="3"/>
@@ -25365,11 +25434,11 @@
     </row>
     <row r="618" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="4"/>
-      <c r="B618" s="12" t="s">
+      <c r="B618" s="16" t="s">
         <v>1130</v>
       </c>
-      <c r="C618" s="11"/>
-      <c r="D618" s="11"/>
+      <c r="C618" s="15"/>
+      <c r="D618" s="15"/>
       <c r="E618" s="5"/>
       <c r="F618" s="5"/>
       <c r="G618" s="5"/>
@@ -25396,11 +25465,11 @@
     </row>
     <row r="619" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
-      <c r="B619" s="10" t="s">
+      <c r="B619" s="14" t="s">
         <v>1131</v>
       </c>
-      <c r="C619" s="11"/>
-      <c r="D619" s="11"/>
+      <c r="C619" s="15"/>
+      <c r="D619" s="15"/>
       <c r="E619" s="3"/>
       <c r="F619" s="3"/>
       <c r="G619" s="3"/>
@@ -36609,7 +36678,7 @@
     <mergeCell ref="B378:D378"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A6 A9:A15 A18:A25 A28:A30 A35:A41 A47:A60 A64:A77 A81:A92 A97:A109 A113:A126 A130:A134 A139:A145 A149:A156 A160:A168 A173:A178 A182:A185 A189:A203 A207:A209 A213:A216 A221:A228 A232:A236 A240:A244 A249:A253 A257:A268 A272:A279 A284:A291 A295:A300 A304:A314 A318:A322 A327:A334 A338:A341 A346:A348 A352:A357 A361:A366 A371:A375 A379:A388 A393:A404 A408:A419 A423:A436 A441:A443 A447:A459 A464:A468 A472:A485 A489:A495 A499:A511 A515:A525 A529:A531 A536 A540:A544 A548:A554 A558:A568 A572:A581 A585:A590 A594:A600 A604:A610 A614:A615 A620:A626" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A6 A9:A15 A18:A25 A28:A30 A35:A41 A620:A626 A64:A77 A81:A92 A97:A109 A113:A126 A130:A134 A139:A145 A149:A156 A160:A168 A173:A178 A182:A185 A189:A203 A207:A209 A213:A216 A221:A228 A232:A236 A240:A244 A249:A253 A257:A268 A272:A279 A284:A291 A295:A300 A304:A314 A318:A322 A327:A334 A338:A341 A346:A348 A352:A357 A361:A366 A371:A375 A379:A388 A393:A404 A408:A419 A423:A436 A441:A443 A447:A459 A464:A468 A472:A485 A489:A495 A499:A511 A515:A525 A529:A531 A536 A540:A544 A548:A554 A558:A568 A572:A581 A585:A590 A594:A600 A604:A610 A614:A615 A47:A60" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pending,Completed,Review Afterwards"</formula1>
     </dataValidation>
   </dataValidations>
@@ -36651,676 +36720,677 @@
     <hyperlink ref="C50" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="D50" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="C51" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="D51" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C52" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="D52" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C53" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D53" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C54" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C55" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D56" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C57" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="D57" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C58" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D58" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="C59" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C60" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C64" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D64" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="C65" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D65" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="C66" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D66" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="C67" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D67" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="C68" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C69" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D69" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="C70" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D70" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="C71" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D71" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="C72" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="C73" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D73" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="C74" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D74" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="C75" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D75" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="C76" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="C77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D77" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="C81" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="D81" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="C82" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="C83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="D83" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="C84" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D84" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="C85" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="C86" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="C87" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D87" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="C88" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D88" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="C89" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="C90" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="C91" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D91" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="C92" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D92" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C97" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D97" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="C98" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="C99" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C100" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D100" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C101" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="C102" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D102" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C103" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="C104" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="D104" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="C105" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D105" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C106" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D106" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="C107" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="C108" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D108" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="C109" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D109" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C113" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="C114" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="C115" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="D115" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="C116" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="D116" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="C117" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="D117" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="C118" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="D118" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="C119" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="D119" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="C120" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="C121" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="C122" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="D122" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="C123" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="C124" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="D124" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="C125" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="D125" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="C126" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="C130" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="C131" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="D131" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="C132" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="D132" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="C133" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="D133" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="C134" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="C139" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="D139" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="C140" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="D140" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="D141" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="C142" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="D142" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="C143" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="D143" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="C144" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="D144" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="C145" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="D145" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="C149" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="D149" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="D150" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="C151" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="D151" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="C152" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="D152" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="C153" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="D154" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="C155" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="D155" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="C156" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="D156" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="C160" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="D160" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="C161" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="D161" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="C162" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="C163" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="C164" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="D164" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="C165" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="D165" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="C166" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="D166" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="C167" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="D167" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="C168" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="C173" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="C174" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="C175" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="D175" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="C176" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="C177" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="D178" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="C182" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="C183" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="C184" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="C185" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="C189" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="D189" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="C190" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="D190" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="C191" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="D191" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="C192" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="D192" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="C193" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="D193" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="C194" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="C195" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="D195" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="C196" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="D196" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="C197" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="D197" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="C198" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="D198" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="C199" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="D199" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="C200" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="C201" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="C202" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="C203" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="D203" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="C207" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="C208" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="C209" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="C213" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="D213" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="C214" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="D214" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="C215" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="C216" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="D216" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="C221" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="C222" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="C223" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="C224" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="D224" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="C225" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="C226" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="C227" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="C228" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="D228" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="C232" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="D232" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="C233" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="D233" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="C234" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="D234" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="C235" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="C236" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="C240" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="C241" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="C242" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="D242" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="C243" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="C244" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="D244" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="C249" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="D249" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="C250" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="D250" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="C251" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="D251" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="C252" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="C253" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="C257" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="C258" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="C259" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="D259" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="C260" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="C261" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="C262" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="C263" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="D263" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="C264" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="D264" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="C265" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="C266" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="D266" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="C267" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="D267" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="C268" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="D268" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="C272" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="D272" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="C273" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="D273" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="C274" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="D274" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="C275" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="C276" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="D276" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="C277" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="C278" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="D278" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="C279" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="D279" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="C284" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="C285" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="C286" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="D286" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="C287" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="D287" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="C288" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="C289" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="C290" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="D290" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="C291" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="D291" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="C295" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="C296" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="C297" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="C298" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="C299" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="C300" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="C304" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="D304" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="C305" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="D305" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="C306" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="C307" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="C308" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="D308" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="C309" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="D309" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="C310" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="D310" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="C311" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="D311" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="C312" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="D312" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="C313" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="D313" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="C314" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="D314" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="C318" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="D318" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="C319" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="D319" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="C320" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="D320" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="C321" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="D321" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="C322" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="D322" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="C327" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="D327" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="C328" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="D328" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="C329" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="C330" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="D330" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="C331" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="D331" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="C332" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="D332" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="C333" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="D333" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="C334" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="D334" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="C338" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="D338" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="C339" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="D339" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="C340" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="D340" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="C341" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="D341" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="C346" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="C347" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="C348" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="C352" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="D352" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="C353" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="C354" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="D354" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="C355" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="C356" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="D356" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="C357" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="D357" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="C361" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="D361" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="C362" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="C363" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="D363" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="C364" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="D364" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="C365" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="D365" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="C366" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="D366" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="C371" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="D371" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="C372" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="C373" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="D373" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="C374" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="D374" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="C375" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
-    <hyperlink ref="D375" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
-    <hyperlink ref="C379" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
-    <hyperlink ref="D379" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
-    <hyperlink ref="C380" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
-    <hyperlink ref="D380" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
-    <hyperlink ref="C381" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
-    <hyperlink ref="D381" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
-    <hyperlink ref="C382" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
-    <hyperlink ref="D382" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
-    <hyperlink ref="C383" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
-    <hyperlink ref="D383" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
-    <hyperlink ref="C384" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
-    <hyperlink ref="D384" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
-    <hyperlink ref="C385" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
-    <hyperlink ref="C386" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
-    <hyperlink ref="D386" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
-    <hyperlink ref="C387" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
-    <hyperlink ref="D387" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
-    <hyperlink ref="C388" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
-    <hyperlink ref="D388" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
-    <hyperlink ref="C393" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
-    <hyperlink ref="C394" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
-    <hyperlink ref="C395" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
-    <hyperlink ref="C396" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
-    <hyperlink ref="D396" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
-    <hyperlink ref="C397" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
-    <hyperlink ref="D397" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
-    <hyperlink ref="C398" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
-    <hyperlink ref="D398" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
-    <hyperlink ref="C399" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
-    <hyperlink ref="D399" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
-    <hyperlink ref="C400" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
-    <hyperlink ref="D400" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
-    <hyperlink ref="C401" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
-    <hyperlink ref="D401" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
-    <hyperlink ref="C402" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
-    <hyperlink ref="D402" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
-    <hyperlink ref="C403" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
-    <hyperlink ref="D403" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
-    <hyperlink ref="C404" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
-    <hyperlink ref="C408" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
-    <hyperlink ref="D408" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
-    <hyperlink ref="C409" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
-    <hyperlink ref="D409" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
-    <hyperlink ref="C410" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
-    <hyperlink ref="D410" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
-    <hyperlink ref="C411" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
-    <hyperlink ref="D411" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
-    <hyperlink ref="C412" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
-    <hyperlink ref="D412" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
-    <hyperlink ref="C413" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
-    <hyperlink ref="D413" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
-    <hyperlink ref="C414" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
-    <hyperlink ref="D414" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
-    <hyperlink ref="C415" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
-    <hyperlink ref="D415" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
-    <hyperlink ref="C416" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
-    <hyperlink ref="D416" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
-    <hyperlink ref="C417" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
-    <hyperlink ref="D417" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
-    <hyperlink ref="C418" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
-    <hyperlink ref="D418" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
-    <hyperlink ref="C419" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
-    <hyperlink ref="D419" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
-    <hyperlink ref="C423" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
-    <hyperlink ref="C424" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
-    <hyperlink ref="D424" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
-    <hyperlink ref="C425" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
-    <hyperlink ref="D425" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
-    <hyperlink ref="C426" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
-    <hyperlink ref="C427" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
-    <hyperlink ref="D427" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
-    <hyperlink ref="C428" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
-    <hyperlink ref="C429" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
-    <hyperlink ref="D429" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
-    <hyperlink ref="C430" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
-    <hyperlink ref="C431" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
-    <hyperlink ref="D431" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
-    <hyperlink ref="C432" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
-    <hyperlink ref="D432" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
-    <hyperlink ref="C433" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
-    <hyperlink ref="D433" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
-    <hyperlink ref="C434" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
-    <hyperlink ref="D434" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
-    <hyperlink ref="C435" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
-    <hyperlink ref="D435" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
-    <hyperlink ref="C436" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
-    <hyperlink ref="D436" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
-    <hyperlink ref="C441" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
-    <hyperlink ref="C442" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
-    <hyperlink ref="D442" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
-    <hyperlink ref="C443" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
-    <hyperlink ref="C447" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
-    <hyperlink ref="C448" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
-    <hyperlink ref="C449" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
-    <hyperlink ref="D449" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
-    <hyperlink ref="C450" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
-    <hyperlink ref="D450" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
-    <hyperlink ref="C451" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
-    <hyperlink ref="D451" r:id="rId504" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
-    <hyperlink ref="C452" r:id="rId505" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
-    <hyperlink ref="D452" r:id="rId506" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
-    <hyperlink ref="D453" r:id="rId507" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
-    <hyperlink ref="C454" r:id="rId508" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
-    <hyperlink ref="D454" r:id="rId509" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
-    <hyperlink ref="C455" r:id="rId510" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
-    <hyperlink ref="D455" r:id="rId511" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
-    <hyperlink ref="C456" r:id="rId512" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
-    <hyperlink ref="D456" r:id="rId513" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
-    <hyperlink ref="C457" r:id="rId514" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
-    <hyperlink ref="D457" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
-    <hyperlink ref="C458" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
-    <hyperlink ref="D458" r:id="rId517" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
-    <hyperlink ref="C459" r:id="rId518" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
-    <hyperlink ref="C464" r:id="rId519" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
-    <hyperlink ref="C465" r:id="rId520" xr:uid="{00000000-0004-0000-0000-000007020000}"/>
-    <hyperlink ref="C466" r:id="rId521" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
-    <hyperlink ref="D466" r:id="rId522" xr:uid="{00000000-0004-0000-0000-000009020000}"/>
-    <hyperlink ref="C467" r:id="rId523" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
-    <hyperlink ref="D467" r:id="rId524" xr:uid="{00000000-0004-0000-0000-00000B020000}"/>
-    <hyperlink ref="C468" r:id="rId525" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
-    <hyperlink ref="D468" r:id="rId526" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
-    <hyperlink ref="C472" r:id="rId527" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
-    <hyperlink ref="D472" r:id="rId528" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
-    <hyperlink ref="C473" r:id="rId529" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
-    <hyperlink ref="C474" r:id="rId530" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
-    <hyperlink ref="D474" r:id="rId531" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
-    <hyperlink ref="C475" r:id="rId532" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
-    <hyperlink ref="D475" r:id="rId533" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
-    <hyperlink ref="C476" r:id="rId534" xr:uid="{00000000-0004-0000-0000-000015020000}"/>
-    <hyperlink ref="C477" r:id="rId535" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
-    <hyperlink ref="C478" r:id="rId536" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
-    <hyperlink ref="D478" r:id="rId537" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
-    <hyperlink ref="C479" r:id="rId538" xr:uid="{00000000-0004-0000-0000-000019020000}"/>
-    <hyperlink ref="D479" r:id="rId539" xr:uid="{00000000-0004-0000-0000-00001A020000}"/>
-    <hyperlink ref="C480" r:id="rId540" xr:uid="{00000000-0004-0000-0000-00001B020000}"/>
-    <hyperlink ref="D480" r:id="rId541" xr:uid="{00000000-0004-0000-0000-00001C020000}"/>
-    <hyperlink ref="C481" r:id="rId542" xr:uid="{00000000-0004-0000-0000-00001D020000}"/>
-    <hyperlink ref="D481" r:id="rId543" xr:uid="{00000000-0004-0000-0000-00001E020000}"/>
-    <hyperlink ref="C482" r:id="rId544" xr:uid="{00000000-0004-0000-0000-00001F020000}"/>
-    <hyperlink ref="D482" r:id="rId545" xr:uid="{00000000-0004-0000-0000-000020020000}"/>
-    <hyperlink ref="C483" r:id="rId546" xr:uid="{00000000-0004-0000-0000-000021020000}"/>
-    <hyperlink ref="D483" r:id="rId547" xr:uid="{00000000-0004-0000-0000-000022020000}"/>
-    <hyperlink ref="C484" r:id="rId548" xr:uid="{00000000-0004-0000-0000-000023020000}"/>
-    <hyperlink ref="D484" r:id="rId549" xr:uid="{00000000-0004-0000-0000-000024020000}"/>
-    <hyperlink ref="C485" r:id="rId550" xr:uid="{00000000-0004-0000-0000-000025020000}"/>
-    <hyperlink ref="D485" r:id="rId551" xr:uid="{00000000-0004-0000-0000-000026020000}"/>
-    <hyperlink ref="C489" r:id="rId552" xr:uid="{00000000-0004-0000-0000-000027020000}"/>
-    <hyperlink ref="C490" r:id="rId553" xr:uid="{00000000-0004-0000-0000-000028020000}"/>
-    <hyperlink ref="C491" r:id="rId554" xr:uid="{00000000-0004-0000-0000-000029020000}"/>
-    <hyperlink ref="C492" r:id="rId555" xr:uid="{00000000-0004-0000-0000-00002A020000}"/>
-    <hyperlink ref="D492" r:id="rId556" xr:uid="{00000000-0004-0000-0000-00002B020000}"/>
-    <hyperlink ref="C493" r:id="rId557" xr:uid="{00000000-0004-0000-0000-00002C020000}"/>
-    <hyperlink ref="D493" r:id="rId558" xr:uid="{00000000-0004-0000-0000-00002D020000}"/>
-    <hyperlink ref="C494" r:id="rId559" xr:uid="{00000000-0004-0000-0000-00002E020000}"/>
-    <hyperlink ref="D494" r:id="rId560" xr:uid="{00000000-0004-0000-0000-00002F020000}"/>
-    <hyperlink ref="C495" r:id="rId561" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
-    <hyperlink ref="D495" r:id="rId562" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
-    <hyperlink ref="C499" r:id="rId563" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
-    <hyperlink ref="C500" r:id="rId564" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
-    <hyperlink ref="C501" r:id="rId565" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
-    <hyperlink ref="C502" r:id="rId566" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
-    <hyperlink ref="C503" r:id="rId567" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
-    <hyperlink ref="D503" r:id="rId568" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
-    <hyperlink ref="C504" r:id="rId569" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
-    <hyperlink ref="D504" r:id="rId570" xr:uid="{00000000-0004-0000-0000-000039020000}"/>
-    <hyperlink ref="C505" r:id="rId571" xr:uid="{00000000-0004-0000-0000-00003A020000}"/>
-    <hyperlink ref="D505" r:id="rId572" xr:uid="{00000000-0004-0000-0000-00003B020000}"/>
-    <hyperlink ref="C506" r:id="rId573" xr:uid="{00000000-0004-0000-0000-00003C020000}"/>
-    <hyperlink ref="D506" r:id="rId574" xr:uid="{00000000-0004-0000-0000-00003D020000}"/>
-    <hyperlink ref="C507" r:id="rId575" xr:uid="{00000000-0004-0000-0000-00003E020000}"/>
-    <hyperlink ref="D507" r:id="rId576" xr:uid="{00000000-0004-0000-0000-00003F020000}"/>
-    <hyperlink ref="C508" r:id="rId577" xr:uid="{00000000-0004-0000-0000-000040020000}"/>
-    <hyperlink ref="C509" r:id="rId578" xr:uid="{00000000-0004-0000-0000-000041020000}"/>
-    <hyperlink ref="C510" r:id="rId579" xr:uid="{00000000-0004-0000-0000-000042020000}"/>
-    <hyperlink ref="C511" r:id="rId580" xr:uid="{00000000-0004-0000-0000-000043020000}"/>
-    <hyperlink ref="D511" r:id="rId581" xr:uid="{00000000-0004-0000-0000-000044020000}"/>
-    <hyperlink ref="C515" r:id="rId582" xr:uid="{00000000-0004-0000-0000-000045020000}"/>
-    <hyperlink ref="C516" r:id="rId583" xr:uid="{00000000-0004-0000-0000-000046020000}"/>
-    <hyperlink ref="C517" r:id="rId584" xr:uid="{00000000-0004-0000-0000-000047020000}"/>
-    <hyperlink ref="C518" r:id="rId585" xr:uid="{00000000-0004-0000-0000-000048020000}"/>
-    <hyperlink ref="C519" r:id="rId586" xr:uid="{00000000-0004-0000-0000-000049020000}"/>
-    <hyperlink ref="C520" r:id="rId587" xr:uid="{00000000-0004-0000-0000-00004A020000}"/>
-    <hyperlink ref="D520" r:id="rId588" xr:uid="{00000000-0004-0000-0000-00004B020000}"/>
-    <hyperlink ref="C521" r:id="rId589" xr:uid="{00000000-0004-0000-0000-00004C020000}"/>
-    <hyperlink ref="D521" r:id="rId590" xr:uid="{00000000-0004-0000-0000-00004D020000}"/>
-    <hyperlink ref="C522" r:id="rId591" xr:uid="{00000000-0004-0000-0000-00004E020000}"/>
-    <hyperlink ref="D522" r:id="rId592" xr:uid="{00000000-0004-0000-0000-00004F020000}"/>
-    <hyperlink ref="C523" r:id="rId593" xr:uid="{00000000-0004-0000-0000-000050020000}"/>
-    <hyperlink ref="D523" r:id="rId594" xr:uid="{00000000-0004-0000-0000-000051020000}"/>
-    <hyperlink ref="C524" r:id="rId595" xr:uid="{00000000-0004-0000-0000-000052020000}"/>
-    <hyperlink ref="D524" r:id="rId596" xr:uid="{00000000-0004-0000-0000-000053020000}"/>
-    <hyperlink ref="C525" r:id="rId597" xr:uid="{00000000-0004-0000-0000-000054020000}"/>
-    <hyperlink ref="D525" r:id="rId598" xr:uid="{00000000-0004-0000-0000-000055020000}"/>
-    <hyperlink ref="C529" r:id="rId599" xr:uid="{00000000-0004-0000-0000-000056020000}"/>
-    <hyperlink ref="D529" r:id="rId600" xr:uid="{00000000-0004-0000-0000-000057020000}"/>
-    <hyperlink ref="C530" r:id="rId601" xr:uid="{00000000-0004-0000-0000-000058020000}"/>
-    <hyperlink ref="C536" r:id="rId602" xr:uid="{00000000-0004-0000-0000-000059020000}"/>
-    <hyperlink ref="C540" r:id="rId603" xr:uid="{00000000-0004-0000-0000-00005A020000}"/>
-    <hyperlink ref="D540" r:id="rId604" xr:uid="{00000000-0004-0000-0000-00005B020000}"/>
-    <hyperlink ref="C541" r:id="rId605" xr:uid="{00000000-0004-0000-0000-00005C020000}"/>
-    <hyperlink ref="C542" r:id="rId606" xr:uid="{00000000-0004-0000-0000-00005D020000}"/>
-    <hyperlink ref="C543" r:id="rId607" xr:uid="{00000000-0004-0000-0000-00005E020000}"/>
-    <hyperlink ref="D543" r:id="rId608" xr:uid="{00000000-0004-0000-0000-00005F020000}"/>
-    <hyperlink ref="C544" r:id="rId609" xr:uid="{00000000-0004-0000-0000-000060020000}"/>
-    <hyperlink ref="D544" r:id="rId610" xr:uid="{00000000-0004-0000-0000-000061020000}"/>
-    <hyperlink ref="C548" r:id="rId611" xr:uid="{00000000-0004-0000-0000-000062020000}"/>
-    <hyperlink ref="C549" r:id="rId612" xr:uid="{00000000-0004-0000-0000-000063020000}"/>
-    <hyperlink ref="D549" r:id="rId613" xr:uid="{00000000-0004-0000-0000-000064020000}"/>
-    <hyperlink ref="C550" r:id="rId614" xr:uid="{00000000-0004-0000-0000-000065020000}"/>
-    <hyperlink ref="D550" r:id="rId615" xr:uid="{00000000-0004-0000-0000-000066020000}"/>
-    <hyperlink ref="C551" r:id="rId616" xr:uid="{00000000-0004-0000-0000-000067020000}"/>
-    <hyperlink ref="D551" r:id="rId617" xr:uid="{00000000-0004-0000-0000-000068020000}"/>
-    <hyperlink ref="C552" r:id="rId618" xr:uid="{00000000-0004-0000-0000-000069020000}"/>
-    <hyperlink ref="D552" r:id="rId619" xr:uid="{00000000-0004-0000-0000-00006A020000}"/>
-    <hyperlink ref="C553" r:id="rId620" xr:uid="{00000000-0004-0000-0000-00006B020000}"/>
-    <hyperlink ref="D553" r:id="rId621" xr:uid="{00000000-0004-0000-0000-00006C020000}"/>
-    <hyperlink ref="C554" r:id="rId622" xr:uid="{00000000-0004-0000-0000-00006D020000}"/>
-    <hyperlink ref="C558" r:id="rId623" xr:uid="{00000000-0004-0000-0000-00006E020000}"/>
-    <hyperlink ref="C559" r:id="rId624" xr:uid="{00000000-0004-0000-0000-00006F020000}"/>
-    <hyperlink ref="D559" r:id="rId625" xr:uid="{00000000-0004-0000-0000-000070020000}"/>
-    <hyperlink ref="C560" r:id="rId626" xr:uid="{00000000-0004-0000-0000-000071020000}"/>
-    <hyperlink ref="D560" r:id="rId627" xr:uid="{00000000-0004-0000-0000-000072020000}"/>
-    <hyperlink ref="C561" r:id="rId628" xr:uid="{00000000-0004-0000-0000-000073020000}"/>
-    <hyperlink ref="C562" r:id="rId629" xr:uid="{00000000-0004-0000-0000-000074020000}"/>
-    <hyperlink ref="C563" r:id="rId630" xr:uid="{00000000-0004-0000-0000-000075020000}"/>
-    <hyperlink ref="C564" r:id="rId631" xr:uid="{00000000-0004-0000-0000-000076020000}"/>
-    <hyperlink ref="D564" r:id="rId632" xr:uid="{00000000-0004-0000-0000-000077020000}"/>
-    <hyperlink ref="C565" r:id="rId633" xr:uid="{00000000-0004-0000-0000-000078020000}"/>
-    <hyperlink ref="D565" r:id="rId634" xr:uid="{00000000-0004-0000-0000-000079020000}"/>
-    <hyperlink ref="C566" r:id="rId635" xr:uid="{00000000-0004-0000-0000-00007A020000}"/>
-    <hyperlink ref="D566" r:id="rId636" xr:uid="{00000000-0004-0000-0000-00007B020000}"/>
-    <hyperlink ref="C567" r:id="rId637" xr:uid="{00000000-0004-0000-0000-00007C020000}"/>
-    <hyperlink ref="C568" r:id="rId638" xr:uid="{00000000-0004-0000-0000-00007D020000}"/>
-    <hyperlink ref="C572" r:id="rId639" xr:uid="{00000000-0004-0000-0000-00007E020000}"/>
-    <hyperlink ref="D572" r:id="rId640" xr:uid="{00000000-0004-0000-0000-00007F020000}"/>
-    <hyperlink ref="C573" r:id="rId641" xr:uid="{00000000-0004-0000-0000-000080020000}"/>
-    <hyperlink ref="C574" r:id="rId642" xr:uid="{00000000-0004-0000-0000-000081020000}"/>
-    <hyperlink ref="C575" r:id="rId643" xr:uid="{00000000-0004-0000-0000-000082020000}"/>
-    <hyperlink ref="D575" r:id="rId644" xr:uid="{00000000-0004-0000-0000-000083020000}"/>
-    <hyperlink ref="C576" r:id="rId645" xr:uid="{00000000-0004-0000-0000-000084020000}"/>
-    <hyperlink ref="D576" r:id="rId646" xr:uid="{00000000-0004-0000-0000-000085020000}"/>
-    <hyperlink ref="C577" r:id="rId647" xr:uid="{00000000-0004-0000-0000-000086020000}"/>
-    <hyperlink ref="D577" r:id="rId648" xr:uid="{00000000-0004-0000-0000-000087020000}"/>
-    <hyperlink ref="C578" r:id="rId649" xr:uid="{00000000-0004-0000-0000-000088020000}"/>
-    <hyperlink ref="D578" r:id="rId650" xr:uid="{00000000-0004-0000-0000-000089020000}"/>
-    <hyperlink ref="C579" r:id="rId651" xr:uid="{00000000-0004-0000-0000-00008A020000}"/>
-    <hyperlink ref="D579" r:id="rId652" xr:uid="{00000000-0004-0000-0000-00008B020000}"/>
-    <hyperlink ref="C580" r:id="rId653" xr:uid="{00000000-0004-0000-0000-00008C020000}"/>
-    <hyperlink ref="D580" r:id="rId654" xr:uid="{00000000-0004-0000-0000-00008D020000}"/>
-    <hyperlink ref="C581" r:id="rId655" xr:uid="{00000000-0004-0000-0000-00008E020000}"/>
-    <hyperlink ref="D581" r:id="rId656" xr:uid="{00000000-0004-0000-0000-00008F020000}"/>
-    <hyperlink ref="C585" r:id="rId657" xr:uid="{00000000-0004-0000-0000-000090020000}"/>
-    <hyperlink ref="D585" r:id="rId658" xr:uid="{00000000-0004-0000-0000-000091020000}"/>
-    <hyperlink ref="C586" r:id="rId659" xr:uid="{00000000-0004-0000-0000-000092020000}"/>
-    <hyperlink ref="D586" r:id="rId660" xr:uid="{00000000-0004-0000-0000-000093020000}"/>
-    <hyperlink ref="C587" r:id="rId661" xr:uid="{00000000-0004-0000-0000-000094020000}"/>
-    <hyperlink ref="D587" r:id="rId662" xr:uid="{00000000-0004-0000-0000-000095020000}"/>
-    <hyperlink ref="C588" r:id="rId663" xr:uid="{00000000-0004-0000-0000-000096020000}"/>
-    <hyperlink ref="D588" r:id="rId664" xr:uid="{00000000-0004-0000-0000-000097020000}"/>
-    <hyperlink ref="C589" r:id="rId665" xr:uid="{00000000-0004-0000-0000-000098020000}"/>
-    <hyperlink ref="D589" r:id="rId666" xr:uid="{00000000-0004-0000-0000-000099020000}"/>
-    <hyperlink ref="C590" r:id="rId667" xr:uid="{00000000-0004-0000-0000-00009A020000}"/>
-    <hyperlink ref="D590" r:id="rId668" xr:uid="{00000000-0004-0000-0000-00009B020000}"/>
-    <hyperlink ref="C594" r:id="rId669" xr:uid="{00000000-0004-0000-0000-00009C020000}"/>
-    <hyperlink ref="D594" r:id="rId670" xr:uid="{00000000-0004-0000-0000-00009D020000}"/>
-    <hyperlink ref="C595" r:id="rId671" xr:uid="{00000000-0004-0000-0000-00009E020000}"/>
-    <hyperlink ref="C596" r:id="rId672" xr:uid="{00000000-0004-0000-0000-00009F020000}"/>
-    <hyperlink ref="C597" r:id="rId673" xr:uid="{00000000-0004-0000-0000-0000A0020000}"/>
-    <hyperlink ref="D597" r:id="rId674" xr:uid="{00000000-0004-0000-0000-0000A1020000}"/>
-    <hyperlink ref="C598" r:id="rId675" xr:uid="{00000000-0004-0000-0000-0000A2020000}"/>
-    <hyperlink ref="D598" r:id="rId676" xr:uid="{00000000-0004-0000-0000-0000A3020000}"/>
-    <hyperlink ref="C599" r:id="rId677" xr:uid="{00000000-0004-0000-0000-0000A4020000}"/>
-    <hyperlink ref="C600" r:id="rId678" xr:uid="{00000000-0004-0000-0000-0000A5020000}"/>
-    <hyperlink ref="D600" r:id="rId679" xr:uid="{00000000-0004-0000-0000-0000A6020000}"/>
-    <hyperlink ref="C604" r:id="rId680" xr:uid="{00000000-0004-0000-0000-0000A7020000}"/>
-    <hyperlink ref="C605" r:id="rId681" xr:uid="{00000000-0004-0000-0000-0000A8020000}"/>
-    <hyperlink ref="C606" r:id="rId682" xr:uid="{00000000-0004-0000-0000-0000A9020000}"/>
-    <hyperlink ref="D606" r:id="rId683" xr:uid="{00000000-0004-0000-0000-0000AA020000}"/>
-    <hyperlink ref="C607" r:id="rId684" xr:uid="{00000000-0004-0000-0000-0000AB020000}"/>
-    <hyperlink ref="D607" r:id="rId685" xr:uid="{00000000-0004-0000-0000-0000AC020000}"/>
-    <hyperlink ref="C608" r:id="rId686" xr:uid="{00000000-0004-0000-0000-0000AD020000}"/>
-    <hyperlink ref="D608" r:id="rId687" xr:uid="{00000000-0004-0000-0000-0000AE020000}"/>
-    <hyperlink ref="C609" r:id="rId688" xr:uid="{00000000-0004-0000-0000-0000AF020000}"/>
-    <hyperlink ref="D609" r:id="rId689" xr:uid="{00000000-0004-0000-0000-0000B0020000}"/>
-    <hyperlink ref="C610" r:id="rId690" xr:uid="{00000000-0004-0000-0000-0000B1020000}"/>
-    <hyperlink ref="D610" r:id="rId691" xr:uid="{00000000-0004-0000-0000-0000B2020000}"/>
-    <hyperlink ref="D614" r:id="rId692" xr:uid="{00000000-0004-0000-0000-0000B3020000}"/>
-    <hyperlink ref="D615" r:id="rId693" xr:uid="{00000000-0004-0000-0000-0000B4020000}"/>
-    <hyperlink ref="C620" r:id="rId694" xr:uid="{00000000-0004-0000-0000-0000B5020000}"/>
-    <hyperlink ref="D620" r:id="rId695" xr:uid="{00000000-0004-0000-0000-0000B6020000}"/>
-    <hyperlink ref="C621" r:id="rId696" xr:uid="{00000000-0004-0000-0000-0000B7020000}"/>
-    <hyperlink ref="D621" r:id="rId697" xr:uid="{00000000-0004-0000-0000-0000B8020000}"/>
-    <hyperlink ref="C622" r:id="rId698" xr:uid="{00000000-0004-0000-0000-0000B9020000}"/>
-    <hyperlink ref="D622" r:id="rId699" xr:uid="{00000000-0004-0000-0000-0000BA020000}"/>
-    <hyperlink ref="C623" r:id="rId700" xr:uid="{00000000-0004-0000-0000-0000BB020000}"/>
-    <hyperlink ref="D623" r:id="rId701" xr:uid="{00000000-0004-0000-0000-0000BC020000}"/>
-    <hyperlink ref="C624" r:id="rId702" xr:uid="{00000000-0004-0000-0000-0000BD020000}"/>
-    <hyperlink ref="C625" r:id="rId703" xr:uid="{00000000-0004-0000-0000-0000BE020000}"/>
-    <hyperlink ref="D625" r:id="rId704" xr:uid="{00000000-0004-0000-0000-0000BF020000}"/>
-    <hyperlink ref="C626" r:id="rId705" xr:uid="{00000000-0004-0000-0000-0000C0020000}"/>
-    <hyperlink ref="D626" r:id="rId706" xr:uid="{00000000-0004-0000-0000-0000C1020000}"/>
+    <hyperlink ref="C52" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D52" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C53" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D53" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C54" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C55" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D56" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C57" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D57" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C58" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D58" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C59" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C60" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C64" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D64" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C65" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D65" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C66" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D66" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C67" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D67" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C68" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C69" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D69" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C70" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D70" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C71" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D71" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C72" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C73" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D73" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C74" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D74" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C75" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D75" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C76" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D76" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C77" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C81" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="D81" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C82" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D82" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C83" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="D83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D84" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C85" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C86" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C87" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D87" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C88" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D88" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C89" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C90" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C91" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D91" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C92" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D92" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C97" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D97" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C98" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C99" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C100" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D100" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C101" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C102" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D102" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C103" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C104" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="D104" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C105" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D105" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C106" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D106" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C107" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="C108" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D108" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="C109" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D109" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C113" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C114" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="C115" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D115" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="C116" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="D116" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="C117" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D117" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="C118" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="D118" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="C119" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="D119" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="C120" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="C121" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="C122" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="D122" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="C123" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="C124" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D124" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="C125" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D125" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="C126" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="C130" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="C131" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="D131" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="C132" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="D132" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="C133" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D133" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="C134" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="C139" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="D139" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="C140" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="D140" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D141" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="C142" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D142" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="C143" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="D143" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="C144" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D144" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="C145" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D145" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="C149" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="D149" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="D150" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="C151" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="D151" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="C152" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="D152" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="C153" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="D154" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="C155" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="D155" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="C156" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="D156" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="C160" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="D160" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="C161" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="D161" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="C162" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="C163" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="C164" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="D164" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="C165" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="D165" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="C166" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="D166" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="C167" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="D167" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="C168" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="C173" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="C174" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="C175" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="D175" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="C176" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="C177" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="D178" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="C182" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="C183" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="C184" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="C185" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="C189" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="D189" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="C190" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="D190" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="C191" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="D191" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="C192" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="D192" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="C193" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="D193" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="C194" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="C195" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="D195" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="C196" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="D196" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="C197" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="D197" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="C198" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="D198" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="C199" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="D199" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="C200" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="C201" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="C202" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="C203" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="D203" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="C207" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="C208" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="C209" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="C213" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="D213" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="C214" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="D214" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="C215" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="C216" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="D216" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="C221" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="C222" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="C223" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="C224" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="D224" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="C225" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="C226" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C227" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="C228" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="D228" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="C232" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="D232" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="C233" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="D233" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="C234" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="D234" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="C235" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="C236" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="C240" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="C241" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="C242" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="D242" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="C243" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="C244" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="D244" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="C249" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="D249" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="C250" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="D250" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="C251" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="D251" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="C252" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="C253" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="C257" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="C258" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="C259" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="D259" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="C260" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="C261" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="C262" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="C263" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="D263" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="C264" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="D264" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="C265" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="C266" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="D266" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="C267" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="D267" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="C268" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="D268" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="C272" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="D272" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="C273" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="D273" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="C274" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="D274" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="C275" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="C276" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="D276" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="C277" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="C278" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="D278" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="C279" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="D279" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="C284" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="C285" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="C286" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="D286" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="C287" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="D287" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="C288" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="C289" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="C290" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="D290" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="C291" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="D291" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="C295" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="C296" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="C297" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="C298" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="C299" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="C300" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="C304" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="D304" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="C305" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="D305" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="C306" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="C307" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="C308" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="D308" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="C309" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="D309" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="C310" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="D310" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="C311" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="D311" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="C312" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="D312" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="C313" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="D313" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="C314" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="D314" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="C318" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="D318" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="C319" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="D319" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="C320" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="D320" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="C321" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="D321" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="C322" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="D322" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="C327" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="D327" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="C328" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="D328" r:id="rId352" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="C329" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="C330" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="D330" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="C331" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="D331" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="C332" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="D332" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="C333" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="D333" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="C334" r:id="rId362" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="D334" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="C338" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="D338" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="C339" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="D339" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="C340" r:id="rId368" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="D340" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="C341" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="D341" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="C346" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="C347" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="C348" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="C352" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="D352" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="C353" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="C354" r:id="rId378" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="D354" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="C355" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="C356" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="D356" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="C357" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="D357" r:id="rId384" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="C361" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="D361" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="C362" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="C363" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="D363" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="C364" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="D364" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="C365" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="D365" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="C366" r:id="rId394" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="D366" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="C371" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="D371" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="C372" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="C373" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="D373" r:id="rId400" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="C374" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="D374" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="C375" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="D375" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="C379" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="D379" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="C380" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="D380" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="C381" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="D381" r:id="rId410" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="C382" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="D382" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="C383" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="D383" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="C384" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="D384" r:id="rId416" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="C385" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="C386" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="D386" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="C387" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="D387" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="C388" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="D388" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="C393" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="C394" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="C395" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="C396" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="D396" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="C397" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="D397" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="C398" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="D398" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="C399" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="D399" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="C400" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="D400" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="C401" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="D401" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="C402" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="D402" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="C403" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="D403" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="C404" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="C408" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="D408" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="C409" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
+    <hyperlink ref="D409" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
+    <hyperlink ref="C410" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
+    <hyperlink ref="D410" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="C411" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="D411" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="C412" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="D412" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="C413" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="D413" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="C414" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="D414" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
+    <hyperlink ref="C415" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="D415" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
+    <hyperlink ref="C416" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
+    <hyperlink ref="D416" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
+    <hyperlink ref="C417" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
+    <hyperlink ref="D417" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
+    <hyperlink ref="C418" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="D418" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
+    <hyperlink ref="C419" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="D419" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
+    <hyperlink ref="C423" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="C424" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
+    <hyperlink ref="D424" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="C425" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="D425" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="C426" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
+    <hyperlink ref="C427" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
+    <hyperlink ref="D427" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
+    <hyperlink ref="C428" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="C429" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
+    <hyperlink ref="D429" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
+    <hyperlink ref="C430" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
+    <hyperlink ref="C431" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
+    <hyperlink ref="D431" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
+    <hyperlink ref="C432" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
+    <hyperlink ref="D432" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
+    <hyperlink ref="C433" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
+    <hyperlink ref="D433" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
+    <hyperlink ref="C434" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
+    <hyperlink ref="D434" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
+    <hyperlink ref="C435" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
+    <hyperlink ref="D435" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
+    <hyperlink ref="C436" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
+    <hyperlink ref="D436" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
+    <hyperlink ref="C441" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
+    <hyperlink ref="C442" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
+    <hyperlink ref="D442" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
+    <hyperlink ref="C443" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
+    <hyperlink ref="C447" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
+    <hyperlink ref="C448" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
+    <hyperlink ref="C449" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
+    <hyperlink ref="D449" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
+    <hyperlink ref="C450" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
+    <hyperlink ref="D450" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
+    <hyperlink ref="C451" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
+    <hyperlink ref="D451" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
+    <hyperlink ref="C452" r:id="rId504" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
+    <hyperlink ref="D452" r:id="rId505" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
+    <hyperlink ref="D453" r:id="rId506" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
+    <hyperlink ref="C454" r:id="rId507" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
+    <hyperlink ref="D454" r:id="rId508" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
+    <hyperlink ref="C455" r:id="rId509" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
+    <hyperlink ref="D455" r:id="rId510" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
+    <hyperlink ref="C456" r:id="rId511" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
+    <hyperlink ref="D456" r:id="rId512" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
+    <hyperlink ref="C457" r:id="rId513" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
+    <hyperlink ref="D457" r:id="rId514" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
+    <hyperlink ref="C458" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
+    <hyperlink ref="D458" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
+    <hyperlink ref="C459" r:id="rId517" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
+    <hyperlink ref="C464" r:id="rId518" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
+    <hyperlink ref="C465" r:id="rId519" xr:uid="{00000000-0004-0000-0000-000007020000}"/>
+    <hyperlink ref="C466" r:id="rId520" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
+    <hyperlink ref="D466" r:id="rId521" xr:uid="{00000000-0004-0000-0000-000009020000}"/>
+    <hyperlink ref="C467" r:id="rId522" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
+    <hyperlink ref="D467" r:id="rId523" xr:uid="{00000000-0004-0000-0000-00000B020000}"/>
+    <hyperlink ref="C468" r:id="rId524" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
+    <hyperlink ref="D468" r:id="rId525" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
+    <hyperlink ref="C472" r:id="rId526" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
+    <hyperlink ref="D472" r:id="rId527" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
+    <hyperlink ref="C473" r:id="rId528" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
+    <hyperlink ref="C474" r:id="rId529" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
+    <hyperlink ref="D474" r:id="rId530" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
+    <hyperlink ref="C475" r:id="rId531" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
+    <hyperlink ref="D475" r:id="rId532" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
+    <hyperlink ref="C476" r:id="rId533" xr:uid="{00000000-0004-0000-0000-000015020000}"/>
+    <hyperlink ref="C477" r:id="rId534" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
+    <hyperlink ref="C478" r:id="rId535" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
+    <hyperlink ref="D478" r:id="rId536" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
+    <hyperlink ref="C479" r:id="rId537" xr:uid="{00000000-0004-0000-0000-000019020000}"/>
+    <hyperlink ref="D479" r:id="rId538" xr:uid="{00000000-0004-0000-0000-00001A020000}"/>
+    <hyperlink ref="C480" r:id="rId539" xr:uid="{00000000-0004-0000-0000-00001B020000}"/>
+    <hyperlink ref="D480" r:id="rId540" xr:uid="{00000000-0004-0000-0000-00001C020000}"/>
+    <hyperlink ref="C481" r:id="rId541" xr:uid="{00000000-0004-0000-0000-00001D020000}"/>
+    <hyperlink ref="D481" r:id="rId542" xr:uid="{00000000-0004-0000-0000-00001E020000}"/>
+    <hyperlink ref="C482" r:id="rId543" xr:uid="{00000000-0004-0000-0000-00001F020000}"/>
+    <hyperlink ref="D482" r:id="rId544" xr:uid="{00000000-0004-0000-0000-000020020000}"/>
+    <hyperlink ref="C483" r:id="rId545" xr:uid="{00000000-0004-0000-0000-000021020000}"/>
+    <hyperlink ref="D483" r:id="rId546" xr:uid="{00000000-0004-0000-0000-000022020000}"/>
+    <hyperlink ref="C484" r:id="rId547" xr:uid="{00000000-0004-0000-0000-000023020000}"/>
+    <hyperlink ref="D484" r:id="rId548" xr:uid="{00000000-0004-0000-0000-000024020000}"/>
+    <hyperlink ref="C485" r:id="rId549" xr:uid="{00000000-0004-0000-0000-000025020000}"/>
+    <hyperlink ref="D485" r:id="rId550" xr:uid="{00000000-0004-0000-0000-000026020000}"/>
+    <hyperlink ref="C489" r:id="rId551" xr:uid="{00000000-0004-0000-0000-000027020000}"/>
+    <hyperlink ref="C490" r:id="rId552" xr:uid="{00000000-0004-0000-0000-000028020000}"/>
+    <hyperlink ref="C491" r:id="rId553" xr:uid="{00000000-0004-0000-0000-000029020000}"/>
+    <hyperlink ref="C492" r:id="rId554" xr:uid="{00000000-0004-0000-0000-00002A020000}"/>
+    <hyperlink ref="D492" r:id="rId555" xr:uid="{00000000-0004-0000-0000-00002B020000}"/>
+    <hyperlink ref="C493" r:id="rId556" xr:uid="{00000000-0004-0000-0000-00002C020000}"/>
+    <hyperlink ref="D493" r:id="rId557" xr:uid="{00000000-0004-0000-0000-00002D020000}"/>
+    <hyperlink ref="C494" r:id="rId558" xr:uid="{00000000-0004-0000-0000-00002E020000}"/>
+    <hyperlink ref="D494" r:id="rId559" xr:uid="{00000000-0004-0000-0000-00002F020000}"/>
+    <hyperlink ref="C495" r:id="rId560" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
+    <hyperlink ref="D495" r:id="rId561" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
+    <hyperlink ref="C499" r:id="rId562" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
+    <hyperlink ref="C500" r:id="rId563" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
+    <hyperlink ref="C501" r:id="rId564" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
+    <hyperlink ref="C502" r:id="rId565" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
+    <hyperlink ref="C503" r:id="rId566" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
+    <hyperlink ref="D503" r:id="rId567" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
+    <hyperlink ref="C504" r:id="rId568" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
+    <hyperlink ref="D504" r:id="rId569" xr:uid="{00000000-0004-0000-0000-000039020000}"/>
+    <hyperlink ref="C505" r:id="rId570" xr:uid="{00000000-0004-0000-0000-00003A020000}"/>
+    <hyperlink ref="D505" r:id="rId571" xr:uid="{00000000-0004-0000-0000-00003B020000}"/>
+    <hyperlink ref="C506" r:id="rId572" xr:uid="{00000000-0004-0000-0000-00003C020000}"/>
+    <hyperlink ref="D506" r:id="rId573" xr:uid="{00000000-0004-0000-0000-00003D020000}"/>
+    <hyperlink ref="C507" r:id="rId574" xr:uid="{00000000-0004-0000-0000-00003E020000}"/>
+    <hyperlink ref="D507" r:id="rId575" xr:uid="{00000000-0004-0000-0000-00003F020000}"/>
+    <hyperlink ref="C508" r:id="rId576" xr:uid="{00000000-0004-0000-0000-000040020000}"/>
+    <hyperlink ref="C509" r:id="rId577" xr:uid="{00000000-0004-0000-0000-000041020000}"/>
+    <hyperlink ref="C510" r:id="rId578" xr:uid="{00000000-0004-0000-0000-000042020000}"/>
+    <hyperlink ref="C511" r:id="rId579" xr:uid="{00000000-0004-0000-0000-000043020000}"/>
+    <hyperlink ref="D511" r:id="rId580" xr:uid="{00000000-0004-0000-0000-000044020000}"/>
+    <hyperlink ref="C515" r:id="rId581" xr:uid="{00000000-0004-0000-0000-000045020000}"/>
+    <hyperlink ref="C516" r:id="rId582" xr:uid="{00000000-0004-0000-0000-000046020000}"/>
+    <hyperlink ref="C517" r:id="rId583" xr:uid="{00000000-0004-0000-0000-000047020000}"/>
+    <hyperlink ref="C518" r:id="rId584" xr:uid="{00000000-0004-0000-0000-000048020000}"/>
+    <hyperlink ref="C519" r:id="rId585" xr:uid="{00000000-0004-0000-0000-000049020000}"/>
+    <hyperlink ref="C520" r:id="rId586" xr:uid="{00000000-0004-0000-0000-00004A020000}"/>
+    <hyperlink ref="D520" r:id="rId587" xr:uid="{00000000-0004-0000-0000-00004B020000}"/>
+    <hyperlink ref="C521" r:id="rId588" xr:uid="{00000000-0004-0000-0000-00004C020000}"/>
+    <hyperlink ref="D521" r:id="rId589" xr:uid="{00000000-0004-0000-0000-00004D020000}"/>
+    <hyperlink ref="C522" r:id="rId590" xr:uid="{00000000-0004-0000-0000-00004E020000}"/>
+    <hyperlink ref="D522" r:id="rId591" xr:uid="{00000000-0004-0000-0000-00004F020000}"/>
+    <hyperlink ref="C523" r:id="rId592" xr:uid="{00000000-0004-0000-0000-000050020000}"/>
+    <hyperlink ref="D523" r:id="rId593" xr:uid="{00000000-0004-0000-0000-000051020000}"/>
+    <hyperlink ref="C524" r:id="rId594" xr:uid="{00000000-0004-0000-0000-000052020000}"/>
+    <hyperlink ref="D524" r:id="rId595" xr:uid="{00000000-0004-0000-0000-000053020000}"/>
+    <hyperlink ref="C525" r:id="rId596" xr:uid="{00000000-0004-0000-0000-000054020000}"/>
+    <hyperlink ref="D525" r:id="rId597" xr:uid="{00000000-0004-0000-0000-000055020000}"/>
+    <hyperlink ref="C529" r:id="rId598" xr:uid="{00000000-0004-0000-0000-000056020000}"/>
+    <hyperlink ref="D529" r:id="rId599" xr:uid="{00000000-0004-0000-0000-000057020000}"/>
+    <hyperlink ref="C530" r:id="rId600" xr:uid="{00000000-0004-0000-0000-000058020000}"/>
+    <hyperlink ref="C536" r:id="rId601" xr:uid="{00000000-0004-0000-0000-000059020000}"/>
+    <hyperlink ref="C540" r:id="rId602" xr:uid="{00000000-0004-0000-0000-00005A020000}"/>
+    <hyperlink ref="D540" r:id="rId603" xr:uid="{00000000-0004-0000-0000-00005B020000}"/>
+    <hyperlink ref="C541" r:id="rId604" xr:uid="{00000000-0004-0000-0000-00005C020000}"/>
+    <hyperlink ref="C542" r:id="rId605" xr:uid="{00000000-0004-0000-0000-00005D020000}"/>
+    <hyperlink ref="C543" r:id="rId606" xr:uid="{00000000-0004-0000-0000-00005E020000}"/>
+    <hyperlink ref="D543" r:id="rId607" xr:uid="{00000000-0004-0000-0000-00005F020000}"/>
+    <hyperlink ref="C544" r:id="rId608" xr:uid="{00000000-0004-0000-0000-000060020000}"/>
+    <hyperlink ref="D544" r:id="rId609" xr:uid="{00000000-0004-0000-0000-000061020000}"/>
+    <hyperlink ref="C548" r:id="rId610" xr:uid="{00000000-0004-0000-0000-000062020000}"/>
+    <hyperlink ref="C549" r:id="rId611" xr:uid="{00000000-0004-0000-0000-000063020000}"/>
+    <hyperlink ref="D549" r:id="rId612" xr:uid="{00000000-0004-0000-0000-000064020000}"/>
+    <hyperlink ref="C550" r:id="rId613" xr:uid="{00000000-0004-0000-0000-000065020000}"/>
+    <hyperlink ref="D550" r:id="rId614" xr:uid="{00000000-0004-0000-0000-000066020000}"/>
+    <hyperlink ref="C551" r:id="rId615" xr:uid="{00000000-0004-0000-0000-000067020000}"/>
+    <hyperlink ref="D551" r:id="rId616" xr:uid="{00000000-0004-0000-0000-000068020000}"/>
+    <hyperlink ref="C552" r:id="rId617" xr:uid="{00000000-0004-0000-0000-000069020000}"/>
+    <hyperlink ref="D552" r:id="rId618" xr:uid="{00000000-0004-0000-0000-00006A020000}"/>
+    <hyperlink ref="C553" r:id="rId619" xr:uid="{00000000-0004-0000-0000-00006B020000}"/>
+    <hyperlink ref="D553" r:id="rId620" xr:uid="{00000000-0004-0000-0000-00006C020000}"/>
+    <hyperlink ref="C554" r:id="rId621" xr:uid="{00000000-0004-0000-0000-00006D020000}"/>
+    <hyperlink ref="C558" r:id="rId622" xr:uid="{00000000-0004-0000-0000-00006E020000}"/>
+    <hyperlink ref="C559" r:id="rId623" xr:uid="{00000000-0004-0000-0000-00006F020000}"/>
+    <hyperlink ref="D559" r:id="rId624" xr:uid="{00000000-0004-0000-0000-000070020000}"/>
+    <hyperlink ref="C560" r:id="rId625" xr:uid="{00000000-0004-0000-0000-000071020000}"/>
+    <hyperlink ref="D560" r:id="rId626" xr:uid="{00000000-0004-0000-0000-000072020000}"/>
+    <hyperlink ref="C561" r:id="rId627" xr:uid="{00000000-0004-0000-0000-000073020000}"/>
+    <hyperlink ref="C562" r:id="rId628" xr:uid="{00000000-0004-0000-0000-000074020000}"/>
+    <hyperlink ref="C563" r:id="rId629" xr:uid="{00000000-0004-0000-0000-000075020000}"/>
+    <hyperlink ref="C564" r:id="rId630" xr:uid="{00000000-0004-0000-0000-000076020000}"/>
+    <hyperlink ref="D564" r:id="rId631" xr:uid="{00000000-0004-0000-0000-000077020000}"/>
+    <hyperlink ref="C565" r:id="rId632" xr:uid="{00000000-0004-0000-0000-000078020000}"/>
+    <hyperlink ref="D565" r:id="rId633" xr:uid="{00000000-0004-0000-0000-000079020000}"/>
+    <hyperlink ref="C566" r:id="rId634" xr:uid="{00000000-0004-0000-0000-00007A020000}"/>
+    <hyperlink ref="D566" r:id="rId635" xr:uid="{00000000-0004-0000-0000-00007B020000}"/>
+    <hyperlink ref="C567" r:id="rId636" xr:uid="{00000000-0004-0000-0000-00007C020000}"/>
+    <hyperlink ref="C568" r:id="rId637" xr:uid="{00000000-0004-0000-0000-00007D020000}"/>
+    <hyperlink ref="C572" r:id="rId638" xr:uid="{00000000-0004-0000-0000-00007E020000}"/>
+    <hyperlink ref="D572" r:id="rId639" xr:uid="{00000000-0004-0000-0000-00007F020000}"/>
+    <hyperlink ref="C573" r:id="rId640" xr:uid="{00000000-0004-0000-0000-000080020000}"/>
+    <hyperlink ref="C574" r:id="rId641" xr:uid="{00000000-0004-0000-0000-000081020000}"/>
+    <hyperlink ref="C575" r:id="rId642" xr:uid="{00000000-0004-0000-0000-000082020000}"/>
+    <hyperlink ref="D575" r:id="rId643" xr:uid="{00000000-0004-0000-0000-000083020000}"/>
+    <hyperlink ref="C576" r:id="rId644" xr:uid="{00000000-0004-0000-0000-000084020000}"/>
+    <hyperlink ref="D576" r:id="rId645" xr:uid="{00000000-0004-0000-0000-000085020000}"/>
+    <hyperlink ref="C577" r:id="rId646" xr:uid="{00000000-0004-0000-0000-000086020000}"/>
+    <hyperlink ref="D577" r:id="rId647" xr:uid="{00000000-0004-0000-0000-000087020000}"/>
+    <hyperlink ref="C578" r:id="rId648" xr:uid="{00000000-0004-0000-0000-000088020000}"/>
+    <hyperlink ref="D578" r:id="rId649" xr:uid="{00000000-0004-0000-0000-000089020000}"/>
+    <hyperlink ref="C579" r:id="rId650" xr:uid="{00000000-0004-0000-0000-00008A020000}"/>
+    <hyperlink ref="D579" r:id="rId651" xr:uid="{00000000-0004-0000-0000-00008B020000}"/>
+    <hyperlink ref="C580" r:id="rId652" xr:uid="{00000000-0004-0000-0000-00008C020000}"/>
+    <hyperlink ref="D580" r:id="rId653" xr:uid="{00000000-0004-0000-0000-00008D020000}"/>
+    <hyperlink ref="C581" r:id="rId654" xr:uid="{00000000-0004-0000-0000-00008E020000}"/>
+    <hyperlink ref="D581" r:id="rId655" xr:uid="{00000000-0004-0000-0000-00008F020000}"/>
+    <hyperlink ref="C585" r:id="rId656" xr:uid="{00000000-0004-0000-0000-000090020000}"/>
+    <hyperlink ref="D585" r:id="rId657" xr:uid="{00000000-0004-0000-0000-000091020000}"/>
+    <hyperlink ref="C586" r:id="rId658" xr:uid="{00000000-0004-0000-0000-000092020000}"/>
+    <hyperlink ref="D586" r:id="rId659" xr:uid="{00000000-0004-0000-0000-000093020000}"/>
+    <hyperlink ref="C587" r:id="rId660" xr:uid="{00000000-0004-0000-0000-000094020000}"/>
+    <hyperlink ref="D587" r:id="rId661" xr:uid="{00000000-0004-0000-0000-000095020000}"/>
+    <hyperlink ref="C588" r:id="rId662" xr:uid="{00000000-0004-0000-0000-000096020000}"/>
+    <hyperlink ref="D588" r:id="rId663" xr:uid="{00000000-0004-0000-0000-000097020000}"/>
+    <hyperlink ref="C589" r:id="rId664" xr:uid="{00000000-0004-0000-0000-000098020000}"/>
+    <hyperlink ref="D589" r:id="rId665" xr:uid="{00000000-0004-0000-0000-000099020000}"/>
+    <hyperlink ref="C590" r:id="rId666" xr:uid="{00000000-0004-0000-0000-00009A020000}"/>
+    <hyperlink ref="D590" r:id="rId667" xr:uid="{00000000-0004-0000-0000-00009B020000}"/>
+    <hyperlink ref="C594" r:id="rId668" xr:uid="{00000000-0004-0000-0000-00009C020000}"/>
+    <hyperlink ref="D594" r:id="rId669" xr:uid="{00000000-0004-0000-0000-00009D020000}"/>
+    <hyperlink ref="C595" r:id="rId670" xr:uid="{00000000-0004-0000-0000-00009E020000}"/>
+    <hyperlink ref="C596" r:id="rId671" xr:uid="{00000000-0004-0000-0000-00009F020000}"/>
+    <hyperlink ref="C597" r:id="rId672" xr:uid="{00000000-0004-0000-0000-0000A0020000}"/>
+    <hyperlink ref="D597" r:id="rId673" xr:uid="{00000000-0004-0000-0000-0000A1020000}"/>
+    <hyperlink ref="C598" r:id="rId674" xr:uid="{00000000-0004-0000-0000-0000A2020000}"/>
+    <hyperlink ref="D598" r:id="rId675" xr:uid="{00000000-0004-0000-0000-0000A3020000}"/>
+    <hyperlink ref="C599" r:id="rId676" xr:uid="{00000000-0004-0000-0000-0000A4020000}"/>
+    <hyperlink ref="C600" r:id="rId677" xr:uid="{00000000-0004-0000-0000-0000A5020000}"/>
+    <hyperlink ref="D600" r:id="rId678" xr:uid="{00000000-0004-0000-0000-0000A6020000}"/>
+    <hyperlink ref="C604" r:id="rId679" xr:uid="{00000000-0004-0000-0000-0000A7020000}"/>
+    <hyperlink ref="C605" r:id="rId680" xr:uid="{00000000-0004-0000-0000-0000A8020000}"/>
+    <hyperlink ref="C606" r:id="rId681" xr:uid="{00000000-0004-0000-0000-0000A9020000}"/>
+    <hyperlink ref="D606" r:id="rId682" xr:uid="{00000000-0004-0000-0000-0000AA020000}"/>
+    <hyperlink ref="C607" r:id="rId683" xr:uid="{00000000-0004-0000-0000-0000AB020000}"/>
+    <hyperlink ref="D607" r:id="rId684" xr:uid="{00000000-0004-0000-0000-0000AC020000}"/>
+    <hyperlink ref="C608" r:id="rId685" xr:uid="{00000000-0004-0000-0000-0000AD020000}"/>
+    <hyperlink ref="D608" r:id="rId686" xr:uid="{00000000-0004-0000-0000-0000AE020000}"/>
+    <hyperlink ref="C609" r:id="rId687" xr:uid="{00000000-0004-0000-0000-0000AF020000}"/>
+    <hyperlink ref="D609" r:id="rId688" xr:uid="{00000000-0004-0000-0000-0000B0020000}"/>
+    <hyperlink ref="C610" r:id="rId689" xr:uid="{00000000-0004-0000-0000-0000B1020000}"/>
+    <hyperlink ref="D610" r:id="rId690" xr:uid="{00000000-0004-0000-0000-0000B2020000}"/>
+    <hyperlink ref="D614" r:id="rId691" xr:uid="{00000000-0004-0000-0000-0000B3020000}"/>
+    <hyperlink ref="D615" r:id="rId692" xr:uid="{00000000-0004-0000-0000-0000B4020000}"/>
+    <hyperlink ref="C620" r:id="rId693" xr:uid="{00000000-0004-0000-0000-0000B5020000}"/>
+    <hyperlink ref="D620" r:id="rId694" xr:uid="{00000000-0004-0000-0000-0000B6020000}"/>
+    <hyperlink ref="C621" r:id="rId695" xr:uid="{00000000-0004-0000-0000-0000B7020000}"/>
+    <hyperlink ref="D621" r:id="rId696" xr:uid="{00000000-0004-0000-0000-0000B8020000}"/>
+    <hyperlink ref="C622" r:id="rId697" xr:uid="{00000000-0004-0000-0000-0000B9020000}"/>
+    <hyperlink ref="D622" r:id="rId698" xr:uid="{00000000-0004-0000-0000-0000BA020000}"/>
+    <hyperlink ref="C623" r:id="rId699" xr:uid="{00000000-0004-0000-0000-0000BB020000}"/>
+    <hyperlink ref="D623" r:id="rId700" xr:uid="{00000000-0004-0000-0000-0000BC020000}"/>
+    <hyperlink ref="C624" r:id="rId701" xr:uid="{00000000-0004-0000-0000-0000BD020000}"/>
+    <hyperlink ref="C625" r:id="rId702" xr:uid="{00000000-0004-0000-0000-0000BE020000}"/>
+    <hyperlink ref="D625" r:id="rId703" xr:uid="{00000000-0004-0000-0000-0000BF020000}"/>
+    <hyperlink ref="C626" r:id="rId704" xr:uid="{00000000-0004-0000-0000-0000C0020000}"/>
+    <hyperlink ref="D626" r:id="rId705" xr:uid="{00000000-0004-0000-0000-0000C1020000}"/>
+    <hyperlink ref="D60" r:id="rId706" xr:uid="{8315574E-8FC7-9648-9CD1-E72342FC63E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId707"/>
 </worksheet>
 </file>